--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4127,28 +4127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12931.74279884389</v>
+        <v>13714.65367337786</v>
       </c>
       <c r="AB2" t="n">
-        <v>17693.78100560707</v>
+        <v>18764.9942037346</v>
       </c>
       <c r="AC2" t="n">
-        <v>16005.11137980887</v>
+        <v>16974.08949376424</v>
       </c>
       <c r="AD2" t="n">
-        <v>12931742.79884389</v>
+        <v>13714653.67337786</v>
       </c>
       <c r="AE2" t="n">
-        <v>17693781.00560706</v>
+        <v>18764994.2037346</v>
       </c>
       <c r="AF2" t="n">
         <v>1.01373345538892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>155</v>
+        <v>154.8307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>16005111.37980887</v>
+        <v>16974089.49376424</v>
       </c>
     </row>
     <row r="3">
@@ -4233,28 +4233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6176.059452833621</v>
+        <v>6665.417185513478</v>
       </c>
       <c r="AB3" t="n">
-        <v>8450.35701188064</v>
+        <v>9119.917850672751</v>
       </c>
       <c r="AC3" t="n">
-        <v>7643.866798816987</v>
+        <v>8249.525690889293</v>
       </c>
       <c r="AD3" t="n">
-        <v>6176059.452833621</v>
+        <v>6665417.185513478</v>
       </c>
       <c r="AE3" t="n">
-        <v>8450357.01188064</v>
+        <v>9119917.850672752</v>
       </c>
       <c r="AF3" t="n">
         <v>1.60823207631379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>98</v>
+        <v>97.58463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>7643866.798816987</v>
+        <v>8249525.690889294</v>
       </c>
     </row>
     <row r="4">
@@ -4339,28 +4339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5010.527146512086</v>
+        <v>5441.052266343368</v>
       </c>
       <c r="AB4" t="n">
-        <v>6855.624290715086</v>
+        <v>7444.687753096076</v>
       </c>
       <c r="AC4" t="n">
-        <v>6201.333130338104</v>
+        <v>6734.177202625193</v>
       </c>
       <c r="AD4" t="n">
-        <v>5010527.146512086</v>
+        <v>5441052.266343367</v>
       </c>
       <c r="AE4" t="n">
-        <v>6855624.290715086</v>
+        <v>7444687.753096077</v>
       </c>
       <c r="AF4" t="n">
         <v>1.838943828229889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>86</v>
+        <v>85.34505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6201333.130338104</v>
+        <v>6734177.202625193</v>
       </c>
     </row>
     <row r="5">
@@ -4445,19 +4445,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4507.02629804417</v>
+        <v>4918.007529723678</v>
       </c>
       <c r="AB5" t="n">
-        <v>6166.712216951517</v>
+        <v>6729.034869347756</v>
       </c>
       <c r="AC5" t="n">
-        <v>5578.169858000387</v>
+        <v>6086.825225676707</v>
       </c>
       <c r="AD5" t="n">
-        <v>4507026.29804417</v>
+        <v>4918007.529723678</v>
       </c>
       <c r="AE5" t="n">
-        <v>6166712.216951516</v>
+        <v>6729034.869347757</v>
       </c>
       <c r="AF5" t="n">
         <v>1.961893664674204e-06</v>
@@ -4466,7 +4466,7 @@
         <v>80</v>
       </c>
       <c r="AH5" t="n">
-        <v>5578169.858000387</v>
+        <v>6086825.225676707</v>
       </c>
     </row>
     <row r="6">
@@ -4551,28 +4551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4229.216538993294</v>
+        <v>4610.867383310394</v>
       </c>
       <c r="AB6" t="n">
-        <v>5786.60064851651</v>
+        <v>6308.792170958135</v>
       </c>
       <c r="AC6" t="n">
-        <v>5234.335604166894</v>
+        <v>5706.689900607075</v>
       </c>
       <c r="AD6" t="n">
-        <v>4229216.538993294</v>
+        <v>4610867.383310394</v>
       </c>
       <c r="AE6" t="n">
-        <v>5786600.64851651</v>
+        <v>6308792.170958135</v>
       </c>
       <c r="AF6" t="n">
         <v>2.038315425758221e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>78</v>
+        <v>77.00520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>5234335.604166894</v>
+        <v>5706689.900607076</v>
       </c>
     </row>
     <row r="7">
@@ -4657,28 +4657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4017.584225875502</v>
+        <v>4399.234059162746</v>
       </c>
       <c r="AB7" t="n">
-        <v>5497.035981150018</v>
+        <v>6019.226120255988</v>
       </c>
       <c r="AC7" t="n">
-        <v>4972.406582247308</v>
+        <v>5444.759627375448</v>
       </c>
       <c r="AD7" t="n">
-        <v>4017584.225875502</v>
+        <v>4399234.059162746</v>
       </c>
       <c r="AE7" t="n">
-        <v>5497035.981150017</v>
+        <v>6019226.120255988</v>
       </c>
       <c r="AF7" t="n">
         <v>2.09328123499215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>4972406.582247308</v>
+        <v>5444759.627375448</v>
       </c>
     </row>
     <row r="8">
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3876.05848013675</v>
+        <v>4247.953957572427</v>
       </c>
       <c r="AB8" t="n">
-        <v>5303.394212154999</v>
+        <v>5812.238011253048</v>
       </c>
       <c r="AC8" t="n">
-        <v>4797.245711907251</v>
+        <v>5257.52617298612</v>
       </c>
       <c r="AD8" t="n">
-        <v>3876058.48013675</v>
+        <v>4247953.957572427</v>
       </c>
       <c r="AE8" t="n">
-        <v>5303394.212154999</v>
+        <v>5812238.011253048</v>
       </c>
       <c r="AF8" t="n">
         <v>2.130648342146795e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.66536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4797245.711907252</v>
+        <v>5257526.17298612</v>
       </c>
     </row>
     <row r="9">
@@ -4869,28 +4869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3758.857055207585</v>
+        <v>4130.718367224479</v>
       </c>
       <c r="AB9" t="n">
-        <v>5143.034052004959</v>
+        <v>5651.831104469758</v>
       </c>
       <c r="AC9" t="n">
-        <v>4652.190100375038</v>
+        <v>5112.428276253726</v>
       </c>
       <c r="AD9" t="n">
-        <v>3758857.055207585</v>
+        <v>4130718.36722448</v>
       </c>
       <c r="AE9" t="n">
-        <v>5143034.052004959</v>
+        <v>5651831.104469758</v>
       </c>
       <c r="AF9" t="n">
         <v>2.159336637317136e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.68229166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4652190.100375039</v>
+        <v>5112428.276253726</v>
       </c>
     </row>
     <row r="10">
@@ -4975,28 +4975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3649.120609201836</v>
+        <v>4011.227565367164</v>
       </c>
       <c r="AB10" t="n">
-        <v>4992.887805349565</v>
+        <v>5488.33851780644</v>
       </c>
       <c r="AC10" t="n">
-        <v>4516.373600768859</v>
+        <v>4964.539192598274</v>
       </c>
       <c r="AD10" t="n">
-        <v>3649120.609201836</v>
+        <v>4011227.565367164</v>
       </c>
       <c r="AE10" t="n">
-        <v>4992887.805349564</v>
+        <v>5488338.51780644</v>
       </c>
       <c r="AF10" t="n">
         <v>2.183685526495324e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.86848958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4516373.600768859</v>
+        <v>4964539.192598274</v>
       </c>
     </row>
     <row r="11">
@@ -5081,28 +5081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3552.643277989026</v>
+        <v>3904.928558495081</v>
       </c>
       <c r="AB11" t="n">
-        <v>4860.883264504729</v>
+        <v>5342.895527022838</v>
       </c>
       <c r="AC11" t="n">
-        <v>4396.967388032724</v>
+        <v>4832.977076724546</v>
       </c>
       <c r="AD11" t="n">
-        <v>3552643.277989026</v>
+        <v>3904928.558495081</v>
       </c>
       <c r="AE11" t="n">
-        <v>4860883.264504729</v>
+        <v>5342895.527022838</v>
       </c>
       <c r="AF11" t="n">
         <v>2.203936087792035e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>72</v>
+        <v>71.2109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>4396967.388032723</v>
+        <v>4832977.076724546</v>
       </c>
     </row>
     <row r="12">
@@ -5187,28 +5187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3460.074524271056</v>
+        <v>3822.147315017604</v>
       </c>
       <c r="AB12" t="n">
-        <v>4734.226611822606</v>
+        <v>5229.630577646233</v>
       </c>
       <c r="AC12" t="n">
-        <v>4282.398668518859</v>
+        <v>4730.521975148093</v>
       </c>
       <c r="AD12" t="n">
-        <v>3460074.524271057</v>
+        <v>3822147.315017604</v>
       </c>
       <c r="AE12" t="n">
-        <v>4734226.611822606</v>
+        <v>5229630.577646233</v>
       </c>
       <c r="AF12" t="n">
         <v>2.218882930653893e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.72916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4282398.668518859</v>
+        <v>4730521.975148093</v>
       </c>
     </row>
     <row r="13">
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3406.718485769968</v>
+        <v>3758.969600857243</v>
       </c>
       <c r="AB13" t="n">
-        <v>4661.222526043122</v>
+        <v>5143.188041927984</v>
       </c>
       <c r="AC13" t="n">
-        <v>4216.361990224294</v>
+        <v>4652.329393715937</v>
       </c>
       <c r="AD13" t="n">
-        <v>3406718.485769968</v>
+        <v>3758969.600857243</v>
       </c>
       <c r="AE13" t="n">
-        <v>4661222.526043123</v>
+        <v>5143188.041927984</v>
       </c>
       <c r="AF13" t="n">
         <v>2.229972523744949e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.37760416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>4216361.990224294</v>
+        <v>4652329.393715937</v>
       </c>
     </row>
     <row r="14">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3397.055858471426</v>
+        <v>3749.306973558701</v>
       </c>
       <c r="AB14" t="n">
-        <v>4648.001693088227</v>
+        <v>5129.967208973088</v>
       </c>
       <c r="AC14" t="n">
-        <v>4204.402935011059</v>
+        <v>4640.370338502701</v>
       </c>
       <c r="AD14" t="n">
-        <v>3397055.858471426</v>
+        <v>3749306.973558701</v>
       </c>
       <c r="AE14" t="n">
-        <v>4648001.693088227</v>
+        <v>5129967.208973088</v>
       </c>
       <c r="AF14" t="n">
         <v>2.2323833048517e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.30598958333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>4204402.935011059</v>
+        <v>4640370.338502701</v>
       </c>
     </row>
     <row r="15">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3410.14298020939</v>
+        <v>3762.394095296665</v>
       </c>
       <c r="AB15" t="n">
-        <v>4665.908070413173</v>
+        <v>5147.873586298035</v>
       </c>
       <c r="AC15" t="n">
-        <v>4220.60035281587</v>
+        <v>4656.567756307511</v>
       </c>
       <c r="AD15" t="n">
-        <v>3410142.98020939</v>
+        <v>3762394.095296665</v>
       </c>
       <c r="AE15" t="n">
-        <v>4665908.070413173</v>
+        <v>5147873.586298035</v>
       </c>
       <c r="AF15" t="n">
         <v>2.23190114863035e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>71</v>
+        <v>70.31901041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>4220600.35281587</v>
+        <v>4656567.756307512</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9051.6992820418</v>
+        <v>9700.092093616215</v>
       </c>
       <c r="AB2" t="n">
-        <v>12384.93429047913</v>
+        <v>13272.0939403473</v>
       </c>
       <c r="AC2" t="n">
-        <v>11202.93354415978</v>
+        <v>12005.42392218089</v>
       </c>
       <c r="AD2" t="n">
-        <v>9051699.282041799</v>
+        <v>9700092.093616216</v>
       </c>
       <c r="AE2" t="n">
-        <v>12384934.29047913</v>
+        <v>13272093.9403473</v>
       </c>
       <c r="AF2" t="n">
         <v>1.31786404109661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>131</v>
+        <v>130.2994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11202933.54415978</v>
+        <v>12005423.92218089</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5013.11175682066</v>
+        <v>5458.281367080369</v>
       </c>
       <c r="AB3" t="n">
-        <v>6859.160668564238</v>
+        <v>7468.261368818724</v>
       </c>
       <c r="AC3" t="n">
-        <v>6204.532001248669</v>
+        <v>6755.500985549046</v>
       </c>
       <c r="AD3" t="n">
-        <v>5013111.75682066</v>
+        <v>5458281.367080369</v>
       </c>
       <c r="AE3" t="n">
-        <v>6859160.668564239</v>
+        <v>7468261.368818724</v>
       </c>
       <c r="AF3" t="n">
         <v>1.902409020093825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>90.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6204532.001248669</v>
+        <v>6755500.985549046</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4193.442326043652</v>
+        <v>4599.922894091851</v>
       </c>
       <c r="AB4" t="n">
-        <v>5737.652792111919</v>
+        <v>6293.817437972535</v>
       </c>
       <c r="AC4" t="n">
-        <v>5190.05926247881</v>
+        <v>5693.144335120453</v>
       </c>
       <c r="AD4" t="n">
-        <v>4193442.326043652</v>
+        <v>4599922.894091851</v>
       </c>
       <c r="AE4" t="n">
-        <v>5737652.792111918</v>
+        <v>6293817.437972535</v>
       </c>
       <c r="AF4" t="n">
         <v>2.120822035711918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>81</v>
+        <v>80.9765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>5190059.26247881</v>
+        <v>5693144.335120453</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3821.067412086619</v>
+        <v>4208.186881834602</v>
       </c>
       <c r="AB5" t="n">
-        <v>5228.153006814105</v>
+        <v>5757.826943828991</v>
       </c>
       <c r="AC5" t="n">
-        <v>4729.1854216024</v>
+        <v>5208.308021470604</v>
       </c>
       <c r="AD5" t="n">
-        <v>3821067.412086619</v>
+        <v>4208186.881834602</v>
       </c>
       <c r="AE5" t="n">
-        <v>5228153.006814105</v>
+        <v>5757826.943828991</v>
       </c>
       <c r="AF5" t="n">
         <v>2.235831787897291e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.80989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4729185.4216024</v>
+        <v>5208308.021470604</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3592.499694605839</v>
+        <v>3960.224911664682</v>
       </c>
       <c r="AB6" t="n">
-        <v>4915.41657206086</v>
+        <v>5418.554436932421</v>
       </c>
       <c r="AC6" t="n">
-        <v>4446.296113253674</v>
+        <v>4901.4152064603</v>
       </c>
       <c r="AD6" t="n">
-        <v>3592499.694605839</v>
+        <v>3960224.911664682</v>
       </c>
       <c r="AE6" t="n">
-        <v>4915416.57206086</v>
+        <v>5418554.43693242</v>
       </c>
       <c r="AF6" t="n">
         <v>2.30810855876608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>75</v>
+        <v>74.40104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4446296.113253674</v>
+        <v>4901415.206460301</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3418.28153046164</v>
+        <v>3786.039901909406</v>
       </c>
       <c r="AB7" t="n">
-        <v>4677.043593915799</v>
+        <v>5180.226822084952</v>
       </c>
       <c r="AC7" t="n">
-        <v>4230.67311758421</v>
+        <v>4685.833244678977</v>
       </c>
       <c r="AD7" t="n">
-        <v>3418281.53046164</v>
+        <v>3786039.901909406</v>
       </c>
       <c r="AE7" t="n">
-        <v>4677043.593915799</v>
+        <v>5180226.822084952</v>
       </c>
       <c r="AF7" t="n">
         <v>2.357963703635427e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.83203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>4230673.11758421</v>
+        <v>4685833.244678977</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3281.946751448374</v>
+        <v>3640.058739164813</v>
       </c>
       <c r="AB8" t="n">
-        <v>4490.504334603881</v>
+        <v>4980.488954983417</v>
       </c>
       <c r="AC8" t="n">
-        <v>4061.936903371534</v>
+        <v>4505.158079279764</v>
       </c>
       <c r="AD8" t="n">
-        <v>3281946.751448374</v>
+        <v>3640058.739164813</v>
       </c>
       <c r="AE8" t="n">
-        <v>4490504.334603881</v>
+        <v>4980488.954983417</v>
       </c>
       <c r="AF8" t="n">
         <v>2.392519386058096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.78385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4061936.903371534</v>
+        <v>4505158.079279764</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3175.383595336206</v>
+        <v>3523.781879513613</v>
       </c>
       <c r="AB9" t="n">
-        <v>4344.699923176554</v>
+        <v>4821.39382583563</v>
       </c>
       <c r="AC9" t="n">
-        <v>3930.04786033306</v>
+        <v>4361.246765966431</v>
       </c>
       <c r="AD9" t="n">
-        <v>3175383.595336206</v>
+        <v>3523781.879513613</v>
       </c>
       <c r="AE9" t="n">
-        <v>4344699.923176554</v>
+        <v>4821393.82583563</v>
       </c>
       <c r="AF9" t="n">
         <v>2.418633985751564e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.00260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3930047.86033306</v>
+        <v>4361246.76596643</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3117.738946341141</v>
+        <v>3475.8167686388</v>
       </c>
       <c r="AB10" t="n">
-        <v>4265.827971319072</v>
+        <v>4755.76584506536</v>
       </c>
       <c r="AC10" t="n">
-        <v>3858.703336863379</v>
+        <v>4301.882227571427</v>
       </c>
       <c r="AD10" t="n">
-        <v>3117738.946341142</v>
+        <v>3475816.7686388</v>
       </c>
       <c r="AE10" t="n">
-        <v>4265827.971319072</v>
+        <v>4755765.84506536</v>
       </c>
       <c r="AF10" t="n">
         <v>2.429449122998354e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.69010416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3858703.336863379</v>
+        <v>4301882.227571428</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3128.709218344696</v>
+        <v>3486.787040642354</v>
       </c>
       <c r="AB11" t="n">
-        <v>4280.83798144858</v>
+        <v>4770.775855194867</v>
       </c>
       <c r="AC11" t="n">
-        <v>3872.280812692808</v>
+        <v>4315.459703400856</v>
       </c>
       <c r="AD11" t="n">
-        <v>3128709.218344696</v>
+        <v>3486787.040642355</v>
       </c>
       <c r="AE11" t="n">
-        <v>4280837.98144858</v>
+        <v>4770775.855194868</v>
       </c>
       <c r="AF11" t="n">
         <v>2.429185339163066e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.69661458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3872280.812692808</v>
+        <v>4315459.703400856</v>
       </c>
     </row>
   </sheetData>
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3756.649839971527</v>
+        <v>4196.187665674628</v>
       </c>
       <c r="AB2" t="n">
-        <v>5140.014042743521</v>
+        <v>5741.409086910856</v>
       </c>
       <c r="AC2" t="n">
-        <v>4649.458316558903</v>
+        <v>5193.457061774131</v>
       </c>
       <c r="AD2" t="n">
-        <v>3756649.839971527</v>
+        <v>4196187.665674628</v>
       </c>
       <c r="AE2" t="n">
-        <v>5140014.042743521</v>
+        <v>5741409.086910856</v>
       </c>
       <c r="AF2" t="n">
         <v>2.631050336673957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.10026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4649458.316558903</v>
+        <v>5193457.061774131</v>
       </c>
     </row>
     <row r="3">
@@ -7159,28 +7159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2703.738538048836</v>
+        <v>3068.466675252905</v>
       </c>
       <c r="AB3" t="n">
-        <v>3699.374348284532</v>
+        <v>4198.411476276957</v>
       </c>
       <c r="AC3" t="n">
-        <v>3346.311252588623</v>
+        <v>3797.720977488442</v>
       </c>
       <c r="AD3" t="n">
-        <v>2703738.538048836</v>
+        <v>3068466.675252905</v>
       </c>
       <c r="AE3" t="n">
-        <v>3699374.348284531</v>
+        <v>4198411.476276956</v>
       </c>
       <c r="AF3" t="n">
         <v>3.152400361405321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>76.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3346311.252588623</v>
+        <v>3797720.977488442</v>
       </c>
     </row>
     <row r="4">
@@ -7265,28 +7265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2490.54059750707</v>
+        <v>2845.879087552631</v>
       </c>
       <c r="AB4" t="n">
-        <v>3407.667520405949</v>
+        <v>3893.857318914108</v>
       </c>
       <c r="AC4" t="n">
-        <v>3082.44451494968</v>
+        <v>3522.23304145987</v>
       </c>
       <c r="AD4" t="n">
-        <v>2490540.59750707</v>
+        <v>2845879.087552631</v>
       </c>
       <c r="AE4" t="n">
-        <v>3407667.520405949</v>
+        <v>3893857.318914108</v>
       </c>
       <c r="AF4" t="n">
         <v>3.263224060165307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.45703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3082444.51494968</v>
+        <v>3522233.04145987</v>
       </c>
     </row>
     <row r="5">
@@ -7371,28 +7371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2502.411781331115</v>
+        <v>2857.750271376676</v>
       </c>
       <c r="AB5" t="n">
-        <v>3423.910197833676</v>
+        <v>3910.099996341835</v>
       </c>
       <c r="AC5" t="n">
-        <v>3097.137014040445</v>
+        <v>3536.925540550634</v>
       </c>
       <c r="AD5" t="n">
-        <v>2502411.781331115</v>
+        <v>2857750.271376676</v>
       </c>
       <c r="AE5" t="n">
-        <v>3423910.197833676</v>
+        <v>3910099.996341835</v>
       </c>
       <c r="AF5" t="n">
         <v>3.265064985393878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.41145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3097137.014040445</v>
+        <v>3536925.540550634</v>
       </c>
     </row>
   </sheetData>
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5202.022146475405</v>
+        <v>5704.495867028444</v>
       </c>
       <c r="AB2" t="n">
-        <v>7117.636197828071</v>
+        <v>7805.14290986482</v>
       </c>
       <c r="AC2" t="n">
-        <v>6438.338988772237</v>
+        <v>7060.231025133902</v>
       </c>
       <c r="AD2" t="n">
-        <v>5202022.146475405</v>
+        <v>5704495.867028444</v>
       </c>
       <c r="AE2" t="n">
-        <v>7117636.197828071</v>
+        <v>7805142.909864821</v>
       </c>
       <c r="AF2" t="n">
         <v>2.023090338815131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.6041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6438338.988772237</v>
+        <v>7060231.025133902</v>
       </c>
     </row>
     <row r="3">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3471.90141046029</v>
+        <v>3870.066859600061</v>
       </c>
       <c r="AB3" t="n">
-        <v>4750.40867927211</v>
+        <v>5295.196212605059</v>
       </c>
       <c r="AC3" t="n">
-        <v>4297.036342162655</v>
+        <v>4789.830117928394</v>
       </c>
       <c r="AD3" t="n">
-        <v>3471901.41046029</v>
+        <v>3870066.859600061</v>
       </c>
       <c r="AE3" t="n">
-        <v>4750408.67927211</v>
+        <v>5295196.212605059</v>
       </c>
       <c r="AF3" t="n">
         <v>2.572784230716989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.68359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>4297036.342162656</v>
+        <v>4789830.117928393</v>
       </c>
     </row>
     <row r="4">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3008.489175170581</v>
+        <v>3378.206913924915</v>
       </c>
       <c r="AB4" t="n">
-        <v>4116.34761464376</v>
+        <v>4622.211735602945</v>
       </c>
       <c r="AC4" t="n">
-        <v>3723.489175632167</v>
+        <v>4181.074334871741</v>
       </c>
       <c r="AD4" t="n">
-        <v>3008489.175170581</v>
+        <v>3378206.913924915</v>
       </c>
       <c r="AE4" t="n">
-        <v>4116347.61464376</v>
+        <v>4622211.735602945</v>
       </c>
       <c r="AF4" t="n">
         <v>2.768875729278266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.97395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3723489.175632167</v>
+        <v>4181074.334871741</v>
       </c>
     </row>
     <row r="5">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2762.862096633038</v>
+        <v>3113.581540741491</v>
       </c>
       <c r="AB5" t="n">
-        <v>3780.269809486757</v>
+        <v>4260.139625565839</v>
       </c>
       <c r="AC5" t="n">
-        <v>3419.486164511199</v>
+        <v>3853.557878845192</v>
       </c>
       <c r="AD5" t="n">
-        <v>2762862.096633038</v>
+        <v>3113581.540741491</v>
       </c>
       <c r="AE5" t="n">
-        <v>3780269.809486757</v>
+        <v>4260139.625565839</v>
       </c>
       <c r="AF5" t="n">
         <v>2.868675142367177e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.36328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3419486.164511199</v>
+        <v>3853557.878845192</v>
       </c>
     </row>
     <row r="6">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2710.845482746703</v>
+        <v>3061.632246662861</v>
       </c>
       <c r="AB6" t="n">
-        <v>3709.098383556425</v>
+        <v>4189.060309566349</v>
       </c>
       <c r="AC6" t="n">
-        <v>3355.107239581936</v>
+        <v>3789.262273004249</v>
       </c>
       <c r="AD6" t="n">
-        <v>2710845.482746703</v>
+        <v>3061632.246662861</v>
       </c>
       <c r="AE6" t="n">
-        <v>3709098.383556425</v>
+        <v>4189060.309566349</v>
       </c>
       <c r="AF6" t="n">
         <v>2.886849476380173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.90755208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3355107.239581937</v>
+        <v>3789262.273004249</v>
       </c>
     </row>
     <row r="7">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2722.990038238017</v>
+        <v>3073.776802154176</v>
       </c>
       <c r="AB7" t="n">
-        <v>3725.715100159617</v>
+        <v>4205.677026169541</v>
       </c>
       <c r="AC7" t="n">
-        <v>3370.138080074228</v>
+        <v>3804.293113496541</v>
       </c>
       <c r="AD7" t="n">
-        <v>2722990.038238017</v>
+        <v>3073776.802154175</v>
       </c>
       <c r="AE7" t="n">
-        <v>3725715.100159617</v>
+        <v>4205677.026169541</v>
       </c>
       <c r="AF7" t="n">
         <v>2.886530628415033e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.92057291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3370138.080074228</v>
+        <v>3804293.113496541</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2850.631536150526</v>
+        <v>3248.366662533584</v>
       </c>
       <c r="AB2" t="n">
-        <v>3900.359828748983</v>
+        <v>4444.558575501695</v>
       </c>
       <c r="AC2" t="n">
-        <v>3528.114960882433</v>
+        <v>4020.376143032785</v>
       </c>
       <c r="AD2" t="n">
-        <v>2850631.536150526</v>
+        <v>3248366.662533584</v>
       </c>
       <c r="AE2" t="n">
-        <v>3900359.828748983</v>
+        <v>4444558.575501695</v>
       </c>
       <c r="AF2" t="n">
         <v>3.281292421489845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.66536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3528114.960882434</v>
+        <v>4020376.143032785</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2329.726663865472</v>
+        <v>2690.456817483821</v>
       </c>
       <c r="AB3" t="n">
-        <v>3187.634801787462</v>
+        <v>3681.201712259319</v>
       </c>
       <c r="AC3" t="n">
-        <v>2883.41141017829</v>
+        <v>3329.872987440203</v>
       </c>
       <c r="AD3" t="n">
-        <v>2329726.663865472</v>
+        <v>2690456.817483821</v>
       </c>
       <c r="AE3" t="n">
-        <v>3187634.801787463</v>
+        <v>3681201.712259319</v>
       </c>
       <c r="AF3" t="n">
         <v>3.635946955158134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.51432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2883411.41017829</v>
+        <v>3329872.987440203</v>
       </c>
     </row>
     <row r="4">
@@ -8707,28 +8707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2345.695325157529</v>
+        <v>2706.425478775877</v>
       </c>
       <c r="AB4" t="n">
-        <v>3209.483828654871</v>
+        <v>3703.050739126727</v>
       </c>
       <c r="AC4" t="n">
-        <v>2903.175196586774</v>
+        <v>3349.636773848687</v>
       </c>
       <c r="AD4" t="n">
-        <v>2345695.325157529</v>
+        <v>2706425.478775877</v>
       </c>
       <c r="AE4" t="n">
-        <v>3209483.828654871</v>
+        <v>3703050.739126727</v>
       </c>
       <c r="AF4" t="n">
         <v>3.63552524941061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.51432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2903175.196586774</v>
+        <v>3349636.773848687</v>
       </c>
     </row>
   </sheetData>
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9896.324262973874</v>
+        <v>10575.81261021663</v>
       </c>
       <c r="AB2" t="n">
-        <v>13540.58745161478</v>
+        <v>14470.29338522258</v>
       </c>
       <c r="AC2" t="n">
-        <v>12248.29278956601</v>
+        <v>13089.26889372071</v>
       </c>
       <c r="AD2" t="n">
-        <v>9896324.262973875</v>
+        <v>10575812.61021663</v>
       </c>
       <c r="AE2" t="n">
-        <v>13540587.45161478</v>
+        <v>14470293.38522258</v>
       </c>
       <c r="AF2" t="n">
         <v>1.232743620756734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>136</v>
+        <v>135.9440104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12248292.789566</v>
+        <v>13089268.89372071</v>
       </c>
     </row>
     <row r="3">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5295.991050779153</v>
+        <v>5752.175048978745</v>
       </c>
       <c r="AB3" t="n">
-        <v>7246.208598311941</v>
+        <v>7870.37967006628</v>
       </c>
       <c r="AC3" t="n">
-        <v>6554.640619806418</v>
+        <v>7119.2416805021</v>
       </c>
       <c r="AD3" t="n">
-        <v>5295991.050779153</v>
+        <v>5752175.048978745</v>
       </c>
       <c r="AE3" t="n">
-        <v>7246208.598311941</v>
+        <v>7870379.670066279</v>
       </c>
       <c r="AF3" t="n">
         <v>1.820414050113098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>93</v>
+        <v>92.05729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6554640.619806418</v>
+        <v>7119241.6805021</v>
       </c>
     </row>
     <row r="4">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4399.732140030786</v>
+        <v>4807.371494736245</v>
       </c>
       <c r="AB4" t="n">
-        <v>6019.907616473418</v>
+        <v>6577.657765360556</v>
       </c>
       <c r="AC4" t="n">
-        <v>5445.376082550372</v>
+        <v>5949.895340034951</v>
       </c>
       <c r="AD4" t="n">
-        <v>4399732.140030786</v>
+        <v>4807371.494736245</v>
       </c>
       <c r="AE4" t="n">
-        <v>6019907.616473418</v>
+        <v>6577657.765360557</v>
       </c>
       <c r="AF4" t="n">
         <v>2.042817576597504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>83</v>
+        <v>82.03776041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5445376.082550372</v>
+        <v>5949895.340034951</v>
       </c>
     </row>
     <row r="5">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3996.856424774388</v>
+        <v>4385.145241889897</v>
       </c>
       <c r="AB5" t="n">
-        <v>5468.675289237424</v>
+        <v>5999.949178908524</v>
       </c>
       <c r="AC5" t="n">
-        <v>4946.752594966371</v>
+        <v>5427.322450254831</v>
       </c>
       <c r="AD5" t="n">
-        <v>3996856.424774387</v>
+        <v>4385145.241889897</v>
       </c>
       <c r="AE5" t="n">
-        <v>5468675.289237425</v>
+        <v>5999949.178908524</v>
       </c>
       <c r="AF5" t="n">
         <v>2.159167569619438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>78</v>
+        <v>77.61067708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4946752.594966372</v>
+        <v>5427322.450254831</v>
       </c>
     </row>
     <row r="6">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3760.718699650417</v>
+        <v>4129.556504979349</v>
       </c>
       <c r="AB6" t="n">
-        <v>5145.581236061598</v>
+        <v>5650.241393288225</v>
       </c>
       <c r="AC6" t="n">
-        <v>4654.494184760307</v>
+        <v>5110.990284876185</v>
       </c>
       <c r="AD6" t="n">
-        <v>3760718.699650417</v>
+        <v>4129556.504979349</v>
       </c>
       <c r="AE6" t="n">
-        <v>5145581.236061598</v>
+        <v>5650241.393288225</v>
       </c>
       <c r="AF6" t="n">
         <v>2.231757609513654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.09114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4654494.184760307</v>
+        <v>5110990.284876185</v>
       </c>
     </row>
     <row r="7">
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3578.079985110623</v>
+        <v>3946.849459601994</v>
       </c>
       <c r="AB7" t="n">
-        <v>4895.686889376819</v>
+        <v>5400.253553336949</v>
       </c>
       <c r="AC7" t="n">
-        <v>4428.449403794214</v>
+        <v>4884.860933509732</v>
       </c>
       <c r="AD7" t="n">
-        <v>3578079.985110623</v>
+        <v>3946849.459601994</v>
       </c>
       <c r="AE7" t="n">
-        <v>4895686.889376819</v>
+        <v>5400253.553336949</v>
       </c>
       <c r="AF7" t="n">
         <v>2.283497318799957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.39192708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4428449.403794214</v>
+        <v>4884860.933509732</v>
       </c>
     </row>
     <row r="8">
@@ -9640,28 +9640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3442.148708649986</v>
+        <v>3801.24341986131</v>
       </c>
       <c r="AB8" t="n">
-        <v>4709.699720058683</v>
+        <v>5201.028946078623</v>
       </c>
       <c r="AC8" t="n">
-        <v>4260.212588881178</v>
+        <v>4704.650043154655</v>
       </c>
       <c r="AD8" t="n">
-        <v>3442148.708649985</v>
+        <v>3801243.41986131</v>
       </c>
       <c r="AE8" t="n">
-        <v>4709699.720058683</v>
+        <v>5201028.946078623</v>
       </c>
       <c r="AF8" t="n">
         <v>2.319277515769091e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.25260416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4260212.588881178</v>
+        <v>4704650.043154655</v>
       </c>
     </row>
     <row r="9">
@@ -9746,28 +9746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3315.784861284519</v>
+        <v>3674.845407077063</v>
       </c>
       <c r="AB9" t="n">
-        <v>4536.803129313745</v>
+        <v>5028.085608700436</v>
       </c>
       <c r="AC9" t="n">
-        <v>4103.817006095052</v>
+        <v>4548.212175168351</v>
       </c>
       <c r="AD9" t="n">
-        <v>3315784.861284519</v>
+        <v>3674845.407077063</v>
       </c>
       <c r="AE9" t="n">
-        <v>4536803.129313745</v>
+        <v>5028085.608700436</v>
       </c>
       <c r="AF9" t="n">
         <v>2.348365014024575e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.36067708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4103817.006095052</v>
+        <v>4548212.17516835</v>
       </c>
     </row>
     <row r="10">
@@ -9852,28 +9852,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3219.014288893509</v>
+        <v>3578.142154493758</v>
       </c>
       <c r="AB10" t="n">
-        <v>4404.397362952011</v>
+        <v>4895.771952269544</v>
       </c>
       <c r="AC10" t="n">
-        <v>3984.047860242228</v>
+        <v>4428.526348403844</v>
       </c>
       <c r="AD10" t="n">
-        <v>3219014.288893509</v>
+        <v>3578142.154493758</v>
       </c>
       <c r="AE10" t="n">
-        <v>4404397.362952011</v>
+        <v>4895771.952269544</v>
       </c>
       <c r="AF10" t="n">
         <v>2.367670875698568e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.78125</v>
       </c>
       <c r="AH10" t="n">
-        <v>3984047.860242228</v>
+        <v>4428526.348403844</v>
       </c>
     </row>
     <row r="11">
@@ -9958,28 +9958,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3189.278663188595</v>
+        <v>3538.765930927578</v>
       </c>
       <c r="AB11" t="n">
-        <v>4363.711768019323</v>
+        <v>4841.895666029912</v>
       </c>
       <c r="AC11" t="n">
-        <v>3947.245241387327</v>
+        <v>4379.791939307082</v>
       </c>
       <c r="AD11" t="n">
-        <v>3189278.663188595</v>
+        <v>3538765.930927578</v>
       </c>
       <c r="AE11" t="n">
-        <v>4363711.768019323</v>
+        <v>4841895.666029911</v>
       </c>
       <c r="AF11" t="n">
         <v>2.374106162923233e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.59244791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3947245.241387327</v>
+        <v>4379791.939307082</v>
       </c>
     </row>
     <row r="12">
@@ -10064,28 +10064,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3202.118140380143</v>
+        <v>3551.605408119127</v>
       </c>
       <c r="AB12" t="n">
-        <v>4381.279307150558</v>
+        <v>4859.463205161146</v>
       </c>
       <c r="AC12" t="n">
-        <v>3963.136159240071</v>
+        <v>4395.682857159827</v>
       </c>
       <c r="AD12" t="n">
-        <v>3202118.140380143</v>
+        <v>3551605.408119127</v>
       </c>
       <c r="AE12" t="n">
-        <v>4381279.307150558</v>
+        <v>4859463.205161146</v>
       </c>
       <c r="AF12" t="n">
         <v>2.373848751434247e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.59244791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3963136.159240071</v>
+        <v>4395682.857159827</v>
       </c>
     </row>
   </sheetData>
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2386.941850809169</v>
+        <v>2763.643772859876</v>
       </c>
       <c r="AB2" t="n">
-        <v>3265.919144719735</v>
+        <v>3781.339333385439</v>
       </c>
       <c r="AC2" t="n">
-        <v>2954.224405293869</v>
+        <v>3420.453614550077</v>
       </c>
       <c r="AD2" t="n">
-        <v>2386941.850809169</v>
+        <v>2763643.772859876</v>
       </c>
       <c r="AE2" t="n">
-        <v>3265919.144719735</v>
+        <v>3781339.333385439</v>
       </c>
       <c r="AF2" t="n">
         <v>3.764294735054547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.79817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2954224.405293869</v>
+        <v>3420453.614550076</v>
       </c>
     </row>
     <row r="3">
@@ -10467,28 +10467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2255.675921266597</v>
+        <v>2623.08683972769</v>
       </c>
       <c r="AB3" t="n">
-        <v>3086.315308875477</v>
+        <v>3589.023136539721</v>
       </c>
       <c r="AC3" t="n">
-        <v>2791.761707467027</v>
+        <v>3246.491805613844</v>
       </c>
       <c r="AD3" t="n">
-        <v>2255675.921266597</v>
+        <v>2623086.83972769</v>
       </c>
       <c r="AE3" t="n">
-        <v>3086315.308875477</v>
+        <v>3589023.136539721</v>
       </c>
       <c r="AF3" t="n">
         <v>3.884726326847785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2791761.707467027</v>
+        <v>3246491.805613844</v>
       </c>
     </row>
   </sheetData>
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6918.012244623279</v>
+        <v>7483.560611791223</v>
       </c>
       <c r="AB2" t="n">
-        <v>9465.529554254326</v>
+        <v>10239.33778044661</v>
       </c>
       <c r="AC2" t="n">
-        <v>8562.152698550106</v>
+        <v>9262.109753681236</v>
       </c>
       <c r="AD2" t="n">
-        <v>6918012.244623279</v>
+        <v>7483560.611791223</v>
       </c>
       <c r="AE2" t="n">
-        <v>9465529.554254327</v>
+        <v>10239337.78044661</v>
       </c>
       <c r="AF2" t="n">
         <v>1.61771365127665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>116</v>
+        <v>115.4361979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8562152.698550105</v>
+        <v>9262109.753681235</v>
       </c>
     </row>
     <row r="3">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4226.37444815253</v>
+        <v>4648.096158566578</v>
       </c>
       <c r="AB3" t="n">
-        <v>5782.711974443978</v>
+        <v>6359.730223681298</v>
       </c>
       <c r="AC3" t="n">
-        <v>5230.818059690057</v>
+        <v>5752.766497070343</v>
       </c>
       <c r="AD3" t="n">
-        <v>4226374.44815253</v>
+        <v>4648096.158566578</v>
       </c>
       <c r="AE3" t="n">
-        <v>5782711.974443978</v>
+        <v>6359730.223681297</v>
       </c>
       <c r="AF3" t="n">
         <v>2.188215859147086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>86</v>
+        <v>85.33854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5230818.059690056</v>
+        <v>5752766.497070342</v>
       </c>
     </row>
     <row r="4">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3605.005029564591</v>
+        <v>3997.994563016783</v>
       </c>
       <c r="AB4" t="n">
-        <v>4932.526923047867</v>
+        <v>5470.232540191784</v>
       </c>
       <c r="AC4" t="n">
-        <v>4461.773476357008</v>
+        <v>4948.161224075265</v>
       </c>
       <c r="AD4" t="n">
-        <v>3605005.029564591</v>
+        <v>3997994.563016783</v>
       </c>
       <c r="AE4" t="n">
-        <v>4932526.923047867</v>
+        <v>5470232.540191785</v>
       </c>
       <c r="AF4" t="n">
         <v>2.397027124772866e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.90364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4461773.476357008</v>
+        <v>4948161.224075264</v>
       </c>
     </row>
     <row r="5">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3311.190702473801</v>
+        <v>3685.037513777588</v>
       </c>
       <c r="AB5" t="n">
-        <v>4530.517198548938</v>
+        <v>5042.030898732109</v>
       </c>
       <c r="AC5" t="n">
-        <v>4098.130995740081</v>
+        <v>4560.826546291737</v>
       </c>
       <c r="AD5" t="n">
-        <v>3311190.702473801</v>
+        <v>3685037.513777588</v>
       </c>
       <c r="AE5" t="n">
-        <v>4530517.198548938</v>
+        <v>5042030.898732109</v>
       </c>
       <c r="AF5" t="n">
         <v>2.503727386878348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.58984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>4098130.995740081</v>
+        <v>4560826.546291737</v>
       </c>
     </row>
     <row r="6">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3099.511348986396</v>
+        <v>3454.249603560558</v>
       </c>
       <c r="AB6" t="n">
-        <v>4240.888168473465</v>
+        <v>4726.256698329135</v>
       </c>
       <c r="AC6" t="n">
-        <v>3836.143753798125</v>
+        <v>4275.189392383363</v>
       </c>
       <c r="AD6" t="n">
-        <v>3099511.348986396</v>
+        <v>3454249.603560558</v>
       </c>
       <c r="AE6" t="n">
-        <v>4240888.168473465</v>
+        <v>4726256.698329136</v>
       </c>
       <c r="AF6" t="n">
         <v>2.572853094317651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3836143.753798125</v>
+        <v>4275189.392383363</v>
       </c>
     </row>
     <row r="7">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2954.218168175313</v>
+        <v>3308.820772104209</v>
       </c>
       <c r="AB7" t="n">
-        <v>4042.091628604979</v>
+        <v>4527.274555263313</v>
       </c>
       <c r="AC7" t="n">
-        <v>3656.320076681999</v>
+        <v>4095.197825778557</v>
       </c>
       <c r="AD7" t="n">
-        <v>2954218.168175313</v>
+        <v>3308820.772104208</v>
       </c>
       <c r="AE7" t="n">
-        <v>4042091.628604979</v>
+        <v>4527274.555263313</v>
       </c>
       <c r="AF7" t="n">
         <v>2.615590564892158e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.39322916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3656320.076681999</v>
+        <v>4095197.825778557</v>
       </c>
     </row>
     <row r="8">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2926.077532991364</v>
+        <v>3271.160023974229</v>
       </c>
       <c r="AB8" t="n">
-        <v>4003.588370069094</v>
+        <v>4475.745458196925</v>
       </c>
       <c r="AC8" t="n">
-        <v>3621.491515101117</v>
+        <v>4048.586593414645</v>
       </c>
       <c r="AD8" t="n">
-        <v>2926077.532991364</v>
+        <v>3271160.023974229</v>
       </c>
       <c r="AE8" t="n">
-        <v>4003588.370069094</v>
+        <v>4475745.458196925</v>
       </c>
       <c r="AF8" t="n">
         <v>2.624482253400948e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.15234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3621491.515101117</v>
+        <v>4048586.593414646</v>
       </c>
     </row>
     <row r="9">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2933.79807436508</v>
+        <v>3278.880565347945</v>
       </c>
       <c r="AB9" t="n">
-        <v>4014.151955382858</v>
+        <v>4486.309043510691</v>
       </c>
       <c r="AC9" t="n">
-        <v>3631.046926658621</v>
+        <v>4058.142004972149</v>
       </c>
       <c r="AD9" t="n">
-        <v>2933798.07436508</v>
+        <v>3278880.565347945</v>
       </c>
       <c r="AE9" t="n">
-        <v>4014151.955382858</v>
+        <v>4486309.04351069</v>
       </c>
       <c r="AF9" t="n">
         <v>2.625916396708818e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.11328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>3631046.926658621</v>
+        <v>4058142.004972149</v>
       </c>
     </row>
   </sheetData>
@@ -11803,28 +11803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8293.867507550238</v>
+        <v>8911.367479225708</v>
       </c>
       <c r="AB2" t="n">
-        <v>11348.03542344142</v>
+        <v>12192.92612686394</v>
       </c>
       <c r="AC2" t="n">
-        <v>10264.99484969549</v>
+        <v>11029.25037019488</v>
       </c>
       <c r="AD2" t="n">
-        <v>8293867.507550239</v>
+        <v>8911367.479225708</v>
       </c>
       <c r="AE2" t="n">
-        <v>11348035.42344142</v>
+        <v>12192926.12686394</v>
       </c>
       <c r="AF2" t="n">
         <v>1.408394812351629e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>125.1432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10264994.84969549</v>
+        <v>11029250.37019488</v>
       </c>
     </row>
     <row r="3">
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4735.783988470561</v>
+        <v>5179.631652151998</v>
       </c>
       <c r="AB3" t="n">
-        <v>6479.708581069962</v>
+        <v>7087.00053569589</v>
       </c>
       <c r="AC3" t="n">
-        <v>5861.294288420512</v>
+        <v>6410.627151236528</v>
       </c>
       <c r="AD3" t="n">
-        <v>4735783.988470561</v>
+        <v>5179631.652151997</v>
       </c>
       <c r="AE3" t="n">
-        <v>6479708.581069962</v>
+        <v>7087000.53569589</v>
       </c>
       <c r="AF3" t="n">
         <v>1.991300239301468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>5861294.288420512</v>
+        <v>6410627.151236529</v>
       </c>
     </row>
     <row r="4">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3995.890295219936</v>
+        <v>4401.099431748871</v>
       </c>
       <c r="AB4" t="n">
-        <v>5467.353388158395</v>
+        <v>6021.778405322755</v>
       </c>
       <c r="AC4" t="n">
-        <v>4945.556854271026</v>
+        <v>5447.068325937596</v>
       </c>
       <c r="AD4" t="n">
-        <v>3995890.295219935</v>
+        <v>4401099.431748871</v>
       </c>
       <c r="AE4" t="n">
-        <v>5467353.388158395</v>
+        <v>6021778.405322755</v>
       </c>
       <c r="AF4" t="n">
         <v>2.204914908072216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.94140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4945556.854271026</v>
+        <v>5447068.325937596</v>
       </c>
     </row>
     <row r="5">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3657.589288364401</v>
+        <v>4033.846164622904</v>
       </c>
       <c r="AB5" t="n">
-        <v>5004.475025791543</v>
+        <v>5519.286283170317</v>
       </c>
       <c r="AC5" t="n">
-        <v>4526.854953154621</v>
+        <v>4992.533346671285</v>
       </c>
       <c r="AD5" t="n">
-        <v>3657589.288364402</v>
+        <v>4033846.164622904</v>
       </c>
       <c r="AE5" t="n">
-        <v>5004475.025791543</v>
+        <v>5519286.283170317</v>
       </c>
       <c r="AF5" t="n">
         <v>2.317543174496338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>76.0546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>4526854.953154622</v>
+        <v>4992533.346671284</v>
       </c>
     </row>
     <row r="6">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3434.86248011834</v>
+        <v>3801.535585751117</v>
       </c>
       <c r="AB6" t="n">
-        <v>4699.73038073597</v>
+        <v>5201.428700338505</v>
       </c>
       <c r="AC6" t="n">
-        <v>4251.194709311368</v>
+        <v>4705.011645429033</v>
       </c>
       <c r="AD6" t="n">
-        <v>3434862.48011834</v>
+        <v>3801535.585751117</v>
       </c>
       <c r="AE6" t="n">
-        <v>4699730.38073597</v>
+        <v>5201428.700338505</v>
       </c>
       <c r="AF6" t="n">
         <v>2.386852876911181e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.84765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>4251194.709311368</v>
+        <v>4705011.645429033</v>
       </c>
     </row>
     <row r="7">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3267.577956851344</v>
+        <v>3624.532652242987</v>
       </c>
       <c r="AB7" t="n">
-        <v>4470.844315929748</v>
+        <v>4959.245477894361</v>
       </c>
       <c r="AC7" t="n">
-        <v>4044.15320928665</v>
+        <v>4485.94204982868</v>
       </c>
       <c r="AD7" t="n">
-        <v>3267577.956851345</v>
+        <v>3624532.652242987</v>
       </c>
       <c r="AE7" t="n">
-        <v>4470844.315929747</v>
+        <v>4959245.477894361</v>
       </c>
       <c r="AF7" t="n">
         <v>2.436669225521851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>73</v>
+        <v>72.33723958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4044153.20928665</v>
+        <v>4485942.04982868</v>
       </c>
     </row>
     <row r="8">
@@ -12439,28 +12439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3131.294601651346</v>
+        <v>3488.215131624207</v>
       </c>
       <c r="AB8" t="n">
-        <v>4284.375416947799</v>
+        <v>4772.729832279167</v>
       </c>
       <c r="AC8" t="n">
-        <v>3875.480640312803</v>
+        <v>4317.227195654653</v>
       </c>
       <c r="AD8" t="n">
-        <v>3131294.601651345</v>
+        <v>3488215.131624207</v>
       </c>
       <c r="AE8" t="n">
-        <v>4284375.416947799</v>
+        <v>4772729.832279166</v>
       </c>
       <c r="AF8" t="n">
         <v>2.472136299804446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.30208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3875480.640312803</v>
+        <v>4317227.195654653</v>
       </c>
     </row>
     <row r="9">
@@ -12545,28 +12545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3057.167928938798</v>
+        <v>3414.155778719363</v>
       </c>
       <c r="AB9" t="n">
-        <v>4182.952033104487</v>
+        <v>4671.398558366695</v>
       </c>
       <c r="AC9" t="n">
-        <v>3783.736961874887</v>
+        <v>4225.566836305055</v>
       </c>
       <c r="AD9" t="n">
-        <v>3057167.928938798</v>
+        <v>3414155.778719363</v>
       </c>
       <c r="AE9" t="n">
-        <v>4182952.033104487</v>
+        <v>4671398.558366695</v>
       </c>
       <c r="AF9" t="n">
         <v>2.487027056182635e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.87239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3783736.961874887</v>
+        <v>4225566.836305056</v>
       </c>
     </row>
     <row r="10">
@@ -12651,28 +12651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3056.238308971783</v>
+        <v>3413.22615875235</v>
       </c>
       <c r="AB10" t="n">
-        <v>4181.68008605368</v>
+        <v>4670.126611315888</v>
       </c>
       <c r="AC10" t="n">
-        <v>3782.586407665421</v>
+        <v>4224.416282095589</v>
       </c>
       <c r="AD10" t="n">
-        <v>3056238.308971783</v>
+        <v>3413226.15875235</v>
       </c>
       <c r="AE10" t="n">
-        <v>4181680.08605368</v>
+        <v>4670126.611315888</v>
       </c>
       <c r="AF10" t="n">
         <v>2.489734466433215e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>71</v>
+        <v>70.79427083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3782586.407665421</v>
+        <v>4224416.282095589</v>
       </c>
     </row>
   </sheetData>
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11816.32503571301</v>
+        <v>12558.09651246479</v>
       </c>
       <c r="AB2" t="n">
-        <v>16167.61721333256</v>
+        <v>17182.54167247238</v>
       </c>
       <c r="AC2" t="n">
-        <v>14624.60251788477</v>
+        <v>15542.66401109967</v>
       </c>
       <c r="AD2" t="n">
-        <v>11816325.03571301</v>
+        <v>12558096.51246479</v>
       </c>
       <c r="AE2" t="n">
-        <v>16167617.21333256</v>
+        <v>17182541.67247238</v>
       </c>
       <c r="AF2" t="n">
         <v>1.082426931581837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>149</v>
+        <v>148.0338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>14624602.51788477</v>
+        <v>15542664.01109966</v>
       </c>
     </row>
     <row r="3">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5867.218575338998</v>
+        <v>6345.529158363227</v>
       </c>
       <c r="AB3" t="n">
-        <v>8027.787298194569</v>
+        <v>8682.232939462005</v>
       </c>
       <c r="AC3" t="n">
-        <v>7261.626545524813</v>
+        <v>7853.612813309886</v>
       </c>
       <c r="AD3" t="n">
-        <v>5867218.575338998</v>
+        <v>6345529.158363227</v>
       </c>
       <c r="AE3" t="n">
-        <v>8027787.29819457</v>
+        <v>8682232.939462004</v>
       </c>
       <c r="AF3" t="n">
         <v>1.675079057832192e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>96</v>
+        <v>95.65755208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>7261626.545524813</v>
+        <v>7853612.813309886</v>
       </c>
     </row>
     <row r="4">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4805.197509719244</v>
+        <v>5224.863763075139</v>
       </c>
       <c r="AB4" t="n">
-        <v>6574.683223150846</v>
+        <v>7148.889105360835</v>
       </c>
       <c r="AC4" t="n">
-        <v>5947.20468395894</v>
+        <v>6466.609162673803</v>
       </c>
       <c r="AD4" t="n">
-        <v>4805197.509719244</v>
+        <v>5224863.763075139</v>
       </c>
       <c r="AE4" t="n">
-        <v>6574683.223150846</v>
+        <v>7148889.105360835</v>
       </c>
       <c r="AF4" t="n">
         <v>1.901999847036024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>85</v>
+        <v>84.23828124999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>5947204.68395894</v>
+        <v>6466609.162673803</v>
       </c>
     </row>
     <row r="5">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4340.771127968459</v>
+        <v>4731.183041812822</v>
       </c>
       <c r="AB5" t="n">
-        <v>5939.234558593468</v>
+        <v>6473.413362873403</v>
       </c>
       <c r="AC5" t="n">
-        <v>5372.402348089139</v>
+        <v>5855.599877013237</v>
       </c>
       <c r="AD5" t="n">
-        <v>4340771.127968459</v>
+        <v>4731183.041812822</v>
       </c>
       <c r="AE5" t="n">
-        <v>5939234.558593468</v>
+        <v>6473413.362873403</v>
       </c>
       <c r="AF5" t="n">
         <v>2.023582135394693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>79.18619791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>5372402.348089139</v>
+        <v>5855599.877013237</v>
       </c>
     </row>
     <row r="6">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4066.6253131838</v>
+        <v>4447.240226632612</v>
       </c>
       <c r="AB6" t="n">
-        <v>5564.136160345312</v>
+        <v>6084.910276470898</v>
       </c>
       <c r="AC6" t="n">
-        <v>5033.102814515893</v>
+        <v>5504.174979909497</v>
       </c>
       <c r="AD6" t="n">
-        <v>4066625.3131838</v>
+        <v>4447240.226632612</v>
       </c>
       <c r="AE6" t="n">
-        <v>5564136.160345311</v>
+        <v>6084910.276470898</v>
       </c>
       <c r="AF6" t="n">
         <v>2.099632595117019e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>77</v>
+        <v>76.31510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5033102.814515893</v>
+        <v>5504174.979909497</v>
       </c>
     </row>
     <row r="7">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3874.863961151073</v>
+        <v>4245.716039623111</v>
       </c>
       <c r="AB7" t="n">
-        <v>5301.759818580337</v>
+        <v>5809.175993184823</v>
       </c>
       <c r="AC7" t="n">
-        <v>4795.767302561469</v>
+        <v>5254.756389624758</v>
       </c>
       <c r="AD7" t="n">
-        <v>3874863.961151073</v>
+        <v>4245716.039623111</v>
       </c>
       <c r="AE7" t="n">
-        <v>5301759.818580337</v>
+        <v>5809175.993184823</v>
       </c>
       <c r="AF7" t="n">
         <v>2.152055727546972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>74.453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>4795767.302561469</v>
+        <v>5254756.389624758</v>
       </c>
     </row>
     <row r="8">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3732.659269118555</v>
+        <v>4093.782678032605</v>
       </c>
       <c r="AB8" t="n">
-        <v>5107.189085313194</v>
+        <v>5601.294065029827</v>
       </c>
       <c r="AC8" t="n">
-        <v>4619.766126995611</v>
+        <v>5066.714420928764</v>
       </c>
       <c r="AD8" t="n">
-        <v>3732659.269118555</v>
+        <v>4093782.678032605</v>
       </c>
       <c r="AE8" t="n">
-        <v>5107189.085313194</v>
+        <v>5601294.065029827</v>
       </c>
       <c r="AF8" t="n">
         <v>2.189711780419191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>74</v>
+        <v>73.17057291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4619766.126995611</v>
+        <v>5066714.420928763</v>
       </c>
     </row>
     <row r="9">
@@ -13690,28 +13690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3614.456712552471</v>
+        <v>3975.54595604774</v>
       </c>
       <c r="AB9" t="n">
-        <v>4945.459132690711</v>
+        <v>5439.517365774095</v>
       </c>
       <c r="AC9" t="n">
-        <v>4473.471454062009</v>
+        <v>4920.377462794982</v>
       </c>
       <c r="AD9" t="n">
-        <v>3614456.712552471</v>
+        <v>3975545.95604774</v>
       </c>
       <c r="AE9" t="n">
-        <v>4945459.132690711</v>
+        <v>5439517.365774095</v>
       </c>
       <c r="AF9" t="n">
         <v>2.21850758555677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>73</v>
+        <v>72.2265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>4473471.454062009</v>
+        <v>4920377.462794982</v>
       </c>
     </row>
     <row r="10">
@@ -13796,28 +13796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3508.674444069306</v>
+        <v>3869.729522145794</v>
       </c>
       <c r="AB10" t="n">
-        <v>4800.723166167715</v>
+        <v>5294.734652617853</v>
       </c>
       <c r="AC10" t="n">
-        <v>4342.54888504577</v>
+        <v>4789.412608578563</v>
       </c>
       <c r="AD10" t="n">
-        <v>3508674.444069306</v>
+        <v>3869729.522145794</v>
       </c>
       <c r="AE10" t="n">
-        <v>4800723.166167716</v>
+        <v>5294734.652617853</v>
       </c>
       <c r="AF10" t="n">
         <v>2.241396558871257e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.49088541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4342548.88504577</v>
+        <v>4789412.608578563</v>
       </c>
     </row>
     <row r="11">
@@ -13902,28 +13902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3408.539178895885</v>
+        <v>3769.661576780078</v>
       </c>
       <c r="AB11" t="n">
-        <v>4663.713678701316</v>
+        <v>5157.817275082295</v>
       </c>
       <c r="AC11" t="n">
-        <v>4218.615390769144</v>
+        <v>4665.562433390257</v>
       </c>
       <c r="AD11" t="n">
-        <v>3408539.178895885</v>
+        <v>3769661.576780078</v>
       </c>
       <c r="AE11" t="n">
-        <v>4663713.678701316</v>
+        <v>5157817.275082295</v>
       </c>
       <c r="AF11" t="n">
         <v>2.259363172333165e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.91796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>4218615.390769145</v>
+        <v>4665562.433390257</v>
       </c>
     </row>
     <row r="12">
@@ -14008,28 +14008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3339.251523571067</v>
+        <v>3690.679417316049</v>
       </c>
       <c r="AB12" t="n">
-        <v>4568.911251930275</v>
+        <v>5049.750400056649</v>
       </c>
       <c r="AC12" t="n">
-        <v>4132.860774553094</v>
+        <v>4567.80930924425</v>
       </c>
       <c r="AD12" t="n">
-        <v>3339251.523571067</v>
+        <v>3690679.417316049</v>
       </c>
       <c r="AE12" t="n">
-        <v>4568911.251930275</v>
+        <v>5049750.400056649</v>
       </c>
       <c r="AF12" t="n">
         <v>2.272653543935125e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.5078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>4132860.774553094</v>
+        <v>4567809.309244251</v>
       </c>
     </row>
     <row r="13">
@@ -14114,28 +14114,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3329.919184244017</v>
+        <v>3681.245592762515</v>
       </c>
       <c r="AB13" t="n">
-        <v>4556.142333549252</v>
+        <v>5036.842625111537</v>
       </c>
       <c r="AC13" t="n">
-        <v>4121.310503821067</v>
+        <v>4556.133434223725</v>
       </c>
       <c r="AD13" t="n">
-        <v>3329919.184244017</v>
+        <v>3681245.592762514</v>
       </c>
       <c r="AE13" t="n">
-        <v>4556142.333549252</v>
+        <v>5036842.625111537</v>
       </c>
       <c r="AF13" t="n">
         <v>2.275114723861414e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.4296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>4121310.503821067</v>
+        <v>4556133.434223725</v>
       </c>
     </row>
     <row r="14">
@@ -14220,28 +14220,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3341.676114067137</v>
+        <v>3693.002522585635</v>
       </c>
       <c r="AB14" t="n">
-        <v>4572.228683612384</v>
+        <v>5052.928975174668</v>
       </c>
       <c r="AC14" t="n">
-        <v>4135.861595211505</v>
+        <v>4570.684525614165</v>
       </c>
       <c r="AD14" t="n">
-        <v>3341676.114067137</v>
+        <v>3693002.522585635</v>
       </c>
       <c r="AE14" t="n">
-        <v>4572228.683612384</v>
+        <v>5052928.975174668</v>
       </c>
       <c r="AF14" t="n">
         <v>2.275114723861414e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>71</v>
+        <v>70.4296875</v>
       </c>
       <c r="AH14" t="n">
-        <v>4135861.595211505</v>
+        <v>4570684.525614165</v>
       </c>
     </row>
   </sheetData>
@@ -14517,28 +14517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5731.747814561118</v>
+        <v>6255.231127711109</v>
       </c>
       <c r="AB2" t="n">
-        <v>7842.430226750099</v>
+        <v>8558.68319025581</v>
       </c>
       <c r="AC2" t="n">
-        <v>7093.959692828727</v>
+        <v>7741.854478764773</v>
       </c>
       <c r="AD2" t="n">
-        <v>5731747.814561117</v>
+        <v>6255231.12771111</v>
       </c>
       <c r="AE2" t="n">
-        <v>7842430.226750099</v>
+        <v>8558683.19025581</v>
       </c>
       <c r="AF2" t="n">
         <v>1.873151191627591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>107</v>
+        <v>106.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>7093959.692828727</v>
+        <v>7741854.478764773</v>
       </c>
     </row>
     <row r="3">
@@ -14623,28 +14623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3725.084113374876</v>
+        <v>4124.777626276265</v>
       </c>
       <c r="AB3" t="n">
-        <v>5096.824423032407</v>
+        <v>5643.702720617415</v>
       </c>
       <c r="AC3" t="n">
-        <v>4610.390653536006</v>
+        <v>5105.075653947993</v>
       </c>
       <c r="AD3" t="n">
-        <v>3725084.113374876</v>
+        <v>4124777.626276265</v>
       </c>
       <c r="AE3" t="n">
-        <v>5096824.423032407</v>
+        <v>5643702.720617415</v>
       </c>
       <c r="AF3" t="n">
         <v>2.430033978327686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.20052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4610390.653536006</v>
+        <v>5105075.653947993</v>
       </c>
     </row>
     <row r="4">
@@ -14729,28 +14729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3213.171575087544</v>
+        <v>3593.824592980663</v>
       </c>
       <c r="AB4" t="n">
-        <v>4396.403104160346</v>
+        <v>4917.229356467685</v>
       </c>
       <c r="AC4" t="n">
-        <v>3976.816562289627</v>
+        <v>4447.935888060971</v>
       </c>
       <c r="AD4" t="n">
-        <v>3213171.575087544</v>
+        <v>3593824.592980663</v>
       </c>
       <c r="AE4" t="n">
-        <v>4396403.104160346</v>
+        <v>4917229.356467685</v>
       </c>
       <c r="AF4" t="n">
         <v>2.629468585134882e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.96354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3976816.562289627</v>
+        <v>4447935.88806097</v>
       </c>
     </row>
     <row r="5">
@@ -14835,28 +14835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2946.234920373781</v>
+        <v>3298.36388874792</v>
       </c>
       <c r="AB5" t="n">
-        <v>4031.168596766888</v>
+        <v>4512.966986130104</v>
       </c>
       <c r="AC5" t="n">
-        <v>3646.439523671964</v>
+        <v>4082.255750962623</v>
       </c>
       <c r="AD5" t="n">
-        <v>2946234.920373781</v>
+        <v>3298363.88874792</v>
       </c>
       <c r="AE5" t="n">
-        <v>4031168.596766888</v>
+        <v>4512966.986130104</v>
       </c>
       <c r="AF5" t="n">
         <v>2.735935982922724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.01432291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3646439.523671964</v>
+        <v>4082255.750962623</v>
       </c>
     </row>
     <row r="6">
@@ -14941,28 +14941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2788.188238395056</v>
+        <v>3140.35036115812</v>
       </c>
       <c r="AB6" t="n">
-        <v>3814.922153956072</v>
+        <v>4296.765906616882</v>
       </c>
       <c r="AC6" t="n">
-        <v>3450.831337859231</v>
+        <v>3886.68859903803</v>
       </c>
       <c r="AD6" t="n">
-        <v>2788188.238395056</v>
+        <v>3140350.36115812</v>
       </c>
       <c r="AE6" t="n">
-        <v>3814922.153956072</v>
+        <v>4296765.906616881</v>
       </c>
       <c r="AF6" t="n">
         <v>2.78625486833254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.69270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3450831.337859231</v>
+        <v>3886688.59903803</v>
       </c>
     </row>
     <row r="7">
@@ -15047,28 +15047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2787.780179514242</v>
+        <v>3139.942302277306</v>
       </c>
       <c r="AB7" t="n">
-        <v>3814.363829793055</v>
+        <v>4296.207582453864</v>
       </c>
       <c r="AC7" t="n">
-        <v>3450.32629937072</v>
+        <v>3886.183560549518</v>
       </c>
       <c r="AD7" t="n">
-        <v>2787780.179514242</v>
+        <v>3139942.302277306</v>
       </c>
       <c r="AE7" t="n">
-        <v>3814363.829793055</v>
+        <v>4296207.582453865</v>
       </c>
       <c r="AF7" t="n">
         <v>2.789629915524662e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.60807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3450326.29937072</v>
+        <v>3886183.560549518</v>
       </c>
     </row>
   </sheetData>
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4213.0313664143</v>
+        <v>4673.574605221653</v>
       </c>
       <c r="AB2" t="n">
-        <v>5764.455381354509</v>
+        <v>6394.590958424506</v>
       </c>
       <c r="AC2" t="n">
-        <v>5214.303850221758</v>
+        <v>5784.300172217007</v>
       </c>
       <c r="AD2" t="n">
-        <v>4213031.3664143</v>
+        <v>4673574.605221652</v>
       </c>
       <c r="AE2" t="n">
-        <v>5764455.381354509</v>
+        <v>6394590.958424506</v>
       </c>
       <c r="AF2" t="n">
         <v>2.395050033495012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.83723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5214303.850221758</v>
+        <v>5784300.172217008</v>
       </c>
     </row>
     <row r="3">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2963.400225624579</v>
+        <v>3339.36922953289</v>
       </c>
       <c r="AB3" t="n">
-        <v>4054.654924690852</v>
+        <v>4569.072302420063</v>
       </c>
       <c r="AC3" t="n">
-        <v>3667.684349422132</v>
+        <v>4133.006454610172</v>
       </c>
       <c r="AD3" t="n">
-        <v>2963400.225624579</v>
+        <v>3339369.22953289</v>
       </c>
       <c r="AE3" t="n">
-        <v>4054654.924690851</v>
+        <v>4569072.302420063</v>
       </c>
       <c r="AF3" t="n">
         <v>2.926740674579703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3667684.349422132</v>
+        <v>4133006.454610172</v>
       </c>
     </row>
     <row r="4">
@@ -15556,28 +15556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2601.397610536801</v>
+        <v>2949.130659950249</v>
       </c>
       <c r="AB4" t="n">
-        <v>3559.346976299486</v>
+        <v>4035.130675406425</v>
       </c>
       <c r="AC4" t="n">
-        <v>3219.647896456185</v>
+        <v>3650.023467086956</v>
       </c>
       <c r="AD4" t="n">
-        <v>2601397.610536802</v>
+        <v>2949130.659950249</v>
       </c>
       <c r="AE4" t="n">
-        <v>3559346.976299486</v>
+        <v>4035130.675406425</v>
       </c>
       <c r="AF4" t="n">
         <v>3.104319766648015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3219647.896456185</v>
+        <v>3650023.467086956</v>
       </c>
     </row>
     <row r="5">
@@ -15662,28 +15662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2568.413470457965</v>
+        <v>2925.546442210201</v>
       </c>
       <c r="AB5" t="n">
-        <v>3514.216620686057</v>
+        <v>4002.861708232236</v>
       </c>
       <c r="AC5" t="n">
-        <v>3178.824718641652</v>
+        <v>3620.834204850092</v>
       </c>
       <c r="AD5" t="n">
-        <v>2568413.470457965</v>
+        <v>2925546.442210201</v>
       </c>
       <c r="AE5" t="n">
-        <v>3514216.620686057</v>
+        <v>4002861.708232236</v>
       </c>
       <c r="AF5" t="n">
         <v>3.120019293451696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.79296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3178824.718641651</v>
+        <v>3620834.204850092</v>
       </c>
     </row>
   </sheetData>
@@ -28668,28 +28668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3301.566366329258</v>
+        <v>3720.165084059566</v>
       </c>
       <c r="AB2" t="n">
-        <v>4517.34875724023</v>
+        <v>5090.093990110941</v>
       </c>
       <c r="AC2" t="n">
-        <v>4086.219331987853</v>
+        <v>4604.302563686345</v>
       </c>
       <c r="AD2" t="n">
-        <v>3301566.366329258</v>
+        <v>3720165.084059566</v>
       </c>
       <c r="AE2" t="n">
-        <v>4517348.75724023</v>
+        <v>5090093.990110941</v>
       </c>
       <c r="AF2" t="n">
         <v>2.91894970016038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.38932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4086219.331987853</v>
+        <v>4604302.563686345</v>
       </c>
     </row>
     <row r="3">
@@ -28774,28 +28774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2446.555366720993</v>
+        <v>2809.385599753091</v>
       </c>
       <c r="AB3" t="n">
-        <v>3347.484987153007</v>
+        <v>3843.925318927719</v>
       </c>
       <c r="AC3" t="n">
-        <v>3028.005718203684</v>
+        <v>3477.066481472182</v>
       </c>
       <c r="AD3" t="n">
-        <v>2446555.366720993</v>
+        <v>2809385.599753091</v>
       </c>
       <c r="AE3" t="n">
-        <v>3347484.987153007</v>
+        <v>3843925.318927719</v>
       </c>
       <c r="AF3" t="n">
         <v>3.410273582576637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.79817708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3028005.718203684</v>
+        <v>3477066.481472182</v>
       </c>
     </row>
     <row r="4">
@@ -28880,28 +28880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2418.717138418754</v>
+        <v>2772.208249644276</v>
       </c>
       <c r="AB4" t="n">
-        <v>3309.395495053925</v>
+        <v>3793.057628359904</v>
       </c>
       <c r="AC4" t="n">
-        <v>2993.551433771603</v>
+        <v>3431.053531898909</v>
       </c>
       <c r="AD4" t="n">
-        <v>2418717.138418754</v>
+        <v>2772208.249644276</v>
       </c>
       <c r="AE4" t="n">
-        <v>3309395.495053925</v>
+        <v>3793057.628359905</v>
       </c>
       <c r="AF4" t="n">
         <v>3.434565512967234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.27083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2993551.433771603</v>
+        <v>3431053.531898909</v>
       </c>
     </row>
   </sheetData>
@@ -29177,28 +29177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2163.278992814194</v>
+        <v>2546.120545549791</v>
       </c>
       <c r="AB2" t="n">
-        <v>2959.893755101928</v>
+        <v>3483.714457332257</v>
       </c>
       <c r="AC2" t="n">
-        <v>2677.405649351977</v>
+        <v>3151.233638948284</v>
       </c>
       <c r="AD2" t="n">
-        <v>2163278.992814194</v>
+        <v>2546120.545549791</v>
       </c>
       <c r="AE2" t="n">
-        <v>2959893.755101928</v>
+        <v>3483714.457332257</v>
       </c>
       <c r="AF2" t="n">
         <v>4.185489837645854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2677405.649351976</v>
+        <v>3151233.638948285</v>
       </c>
     </row>
     <row r="3">
@@ -29283,28 +29283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2182.925124750132</v>
+        <v>2565.766677485728</v>
       </c>
       <c r="AB3" t="n">
-        <v>2986.774459542849</v>
+        <v>3510.595161773179</v>
       </c>
       <c r="AC3" t="n">
-        <v>2701.720897088361</v>
+        <v>3175.54888668467</v>
       </c>
       <c r="AD3" t="n">
-        <v>2182925.124750132</v>
+        <v>2565766.677485729</v>
       </c>
       <c r="AE3" t="n">
-        <v>2986774.459542849</v>
+        <v>3510595.161773179</v>
       </c>
       <c r="AF3" t="n">
         <v>4.187044433351307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>80.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2701720.897088361</v>
+        <v>3175548.88668467</v>
       </c>
     </row>
   </sheetData>
@@ -29580,28 +29580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7575.284790514903</v>
+        <v>8161.995686594886</v>
       </c>
       <c r="AB2" t="n">
-        <v>10364.83884836153</v>
+        <v>11167.60258023615</v>
       </c>
       <c r="AC2" t="n">
-        <v>9375.633175816205</v>
+        <v>10101.78226380666</v>
       </c>
       <c r="AD2" t="n">
-        <v>7575284.790514903</v>
+        <v>8161995.686594886</v>
       </c>
       <c r="AE2" t="n">
-        <v>10364838.84836153</v>
+        <v>11167602.58023615</v>
       </c>
       <c r="AF2" t="n">
         <v>1.508827396688253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>121</v>
+        <v>120.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9375633.175816204</v>
+        <v>10101782.26380666</v>
       </c>
     </row>
     <row r="3">
@@ -29686,28 +29686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4475.905645766482</v>
+        <v>4908.722733159913</v>
       </c>
       <c r="AB3" t="n">
-        <v>6124.131567558901</v>
+        <v>6716.331001072899</v>
       </c>
       <c r="AC3" t="n">
-        <v>5539.653046023487</v>
+        <v>6075.333796760012</v>
       </c>
       <c r="AD3" t="n">
-        <v>4475905.645766482</v>
+        <v>4908722.733159914</v>
       </c>
       <c r="AE3" t="n">
-        <v>6124131.567558901</v>
+        <v>6716331.001072899</v>
       </c>
       <c r="AF3" t="n">
         <v>2.08479859295172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.93359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5539653.046023487</v>
+        <v>6075333.796760011</v>
       </c>
     </row>
     <row r="4">
@@ -29792,28 +29792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3801.886555405663</v>
+        <v>4196.221902030225</v>
       </c>
       <c r="AB4" t="n">
-        <v>5201.908912503545</v>
+        <v>5741.455930602988</v>
       </c>
       <c r="AC4" t="n">
-        <v>4705.446026819022</v>
+        <v>5193.499434770031</v>
       </c>
       <c r="AD4" t="n">
-        <v>3801886.555405663</v>
+        <v>4196221.902030226</v>
       </c>
       <c r="AE4" t="n">
-        <v>5201908.912503545</v>
+        <v>5741455.930602988</v>
       </c>
       <c r="AF4" t="n">
         <v>2.295811723337273e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.9453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4705446.026819022</v>
+        <v>5193499.434770031</v>
       </c>
     </row>
     <row r="5">
@@ -29898,28 +29898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3486.723544329892</v>
+        <v>3861.750700762316</v>
       </c>
       <c r="AB5" t="n">
-        <v>4770.688976738898</v>
+        <v>5283.817677200222</v>
       </c>
       <c r="AC5" t="n">
-        <v>4315.381116502789</v>
+        <v>4779.537533972719</v>
       </c>
       <c r="AD5" t="n">
-        <v>3486723.544329892</v>
+        <v>3861750.700762316</v>
       </c>
       <c r="AE5" t="n">
-        <v>4770688.976738897</v>
+        <v>5283817.677200221</v>
       </c>
       <c r="AF5" t="n">
         <v>2.406607535861613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>76</v>
+        <v>75.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>4315381.116502789</v>
+        <v>4779537.533972719</v>
       </c>
     </row>
     <row r="6">
@@ -30004,28 +30004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3274.7774129992</v>
+        <v>3630.632029884751</v>
       </c>
       <c r="AB6" t="n">
-        <v>4480.694929448832</v>
+        <v>4967.590915469375</v>
       </c>
       <c r="AC6" t="n">
-        <v>4053.063694076897</v>
+        <v>4493.491010554429</v>
       </c>
       <c r="AD6" t="n">
-        <v>3274777.4129992</v>
+        <v>3630632.029884751</v>
       </c>
       <c r="AE6" t="n">
-        <v>4480694.929448832</v>
+        <v>4967590.915469375</v>
       </c>
       <c r="AF6" t="n">
         <v>2.476481276925958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>74</v>
+        <v>73.18359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>4053063.694076897</v>
+        <v>4493491.010554428</v>
       </c>
     </row>
     <row r="7">
@@ -30110,28 +30110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3098.206444871063</v>
+        <v>3454.094216145538</v>
       </c>
       <c r="AB7" t="n">
-        <v>4239.102741094561</v>
+        <v>4726.044090412697</v>
       </c>
       <c r="AC7" t="n">
-        <v>3834.528725102401</v>
+        <v>4274.997075468071</v>
       </c>
       <c r="AD7" t="n">
-        <v>3098206.444871063</v>
+        <v>3454094.216145538</v>
       </c>
       <c r="AE7" t="n">
-        <v>4239102.74109456</v>
+        <v>4726044.090412697</v>
       </c>
       <c r="AF7" t="n">
         <v>2.524362884348538e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.796875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3834528.7251024</v>
+        <v>4274997.075468071</v>
       </c>
     </row>
     <row r="8">
@@ -30216,28 +30216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2997.62032101399</v>
+        <v>3343.854502707324</v>
       </c>
       <c r="AB8" t="n">
-        <v>4101.476368886708</v>
+        <v>4575.20925105361</v>
       </c>
       <c r="AC8" t="n">
-        <v>3710.037220698243</v>
+        <v>4138.557701479395</v>
       </c>
       <c r="AD8" t="n">
-        <v>2997620.32101399</v>
+        <v>3343854.502707324</v>
       </c>
       <c r="AE8" t="n">
-        <v>4101476.368886708</v>
+        <v>4575209.251053611</v>
       </c>
       <c r="AF8" t="n">
         <v>2.551922646760371e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3710037.220698243</v>
+        <v>4138557.701479395</v>
       </c>
     </row>
     <row r="9">
@@ -30322,28 +30322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2984.312342524265</v>
+        <v>3340.165948379959</v>
       </c>
       <c r="AB9" t="n">
-        <v>4083.267805610491</v>
+        <v>4570.162408295378</v>
       </c>
       <c r="AC9" t="n">
-        <v>3693.56645714523</v>
+        <v>4133.99252231072</v>
       </c>
       <c r="AD9" t="n">
-        <v>2984312.342524265</v>
+        <v>3340165.948379959</v>
       </c>
       <c r="AE9" t="n">
-        <v>4083267.80561049</v>
+        <v>4570162.408295378</v>
       </c>
       <c r="AF9" t="n">
         <v>2.554706461145405e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>71</v>
+        <v>70.94401041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3693566.45714523</v>
+        <v>4133992.52231072</v>
       </c>
     </row>
   </sheetData>
@@ -30619,28 +30619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10810.28721028448</v>
+        <v>11520.90255049544</v>
       </c>
       <c r="AB2" t="n">
-        <v>14791.11187732473</v>
+        <v>15763.40713593764</v>
       </c>
       <c r="AC2" t="n">
-        <v>13379.46891920821</v>
+        <v>14258.96968296403</v>
       </c>
       <c r="AD2" t="n">
-        <v>10810287.21028448</v>
+        <v>11520902.55049543</v>
       </c>
       <c r="AE2" t="n">
-        <v>14791111.87732473</v>
+        <v>15763407.13593764</v>
       </c>
       <c r="AF2" t="n">
         <v>1.154840962322912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>142</v>
+        <v>141.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>13379468.91920821</v>
+        <v>14258969.68296403</v>
       </c>
     </row>
     <row r="3">
@@ -30725,28 +30725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5572.376856796693</v>
+        <v>6049.320305976606</v>
       </c>
       <c r="AB3" t="n">
-        <v>7624.371851386363</v>
+        <v>8276.94691981432</v>
       </c>
       <c r="AC3" t="n">
-        <v>6896.712502762864</v>
+        <v>7487.00672255489</v>
       </c>
       <c r="AD3" t="n">
-        <v>5572376.856796693</v>
+        <v>6049320.305976606</v>
       </c>
       <c r="AE3" t="n">
-        <v>7624371.851386364</v>
+        <v>8276946.91981432</v>
       </c>
       <c r="AF3" t="n">
         <v>1.74521598706085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>94</v>
+        <v>93.83463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6896712.502762863</v>
+        <v>7487006.72255489</v>
       </c>
     </row>
     <row r="4">
@@ -30831,28 +30831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4604.65274935203</v>
+        <v>5023.14507138526</v>
       </c>
       <c r="AB4" t="n">
-        <v>6300.289034605998</v>
+        <v>6872.888692190123</v>
       </c>
       <c r="AC4" t="n">
-        <v>5698.99829165416</v>
+        <v>6216.9498415671</v>
       </c>
       <c r="AD4" t="n">
-        <v>4604652.74935203</v>
+        <v>5023145.07138526</v>
       </c>
       <c r="AE4" t="n">
-        <v>6300289.034605999</v>
+        <v>6872888.692190123</v>
       </c>
       <c r="AF4" t="n">
         <v>1.9690906236253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>84</v>
+        <v>83.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>5698998.29165416</v>
+        <v>6216949.8415671</v>
       </c>
     </row>
     <row r="5">
@@ -30937,28 +30937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4162.279138935835</v>
+        <v>4551.596640008966</v>
       </c>
       <c r="AB5" t="n">
-        <v>5695.013944688216</v>
+        <v>6227.695325132468</v>
       </c>
       <c r="AC5" t="n">
-        <v>5151.48980680923</v>
+        <v>5633.332823926876</v>
       </c>
       <c r="AD5" t="n">
-        <v>4162279.138935836</v>
+        <v>4551596.640008966</v>
       </c>
       <c r="AE5" t="n">
-        <v>5695013.944688216</v>
+        <v>6227695.325132468</v>
       </c>
       <c r="AF5" t="n">
         <v>2.090586634255221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>79</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5151489.80680923</v>
+        <v>5633332.823926875</v>
       </c>
     </row>
     <row r="6">
@@ -31043,28 +31043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3907.291547271027</v>
+        <v>4286.940039358903</v>
       </c>
       <c r="AB6" t="n">
-        <v>5346.128672513792</v>
+        <v>5865.580488297846</v>
       </c>
       <c r="AC6" t="n">
-        <v>4835.901655347593</v>
+        <v>5305.777718888399</v>
       </c>
       <c r="AD6" t="n">
-        <v>3907291.547271026</v>
+        <v>4286940.039358903</v>
       </c>
       <c r="AE6" t="n">
-        <v>5346128.672513792</v>
+        <v>5865580.488297846</v>
       </c>
       <c r="AF6" t="n">
         <v>2.164037638611198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>75.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4835901.655347593</v>
+        <v>5305777.718888399</v>
       </c>
     </row>
     <row r="7">
@@ -31149,28 +31149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3723.807836039563</v>
+        <v>4103.387997289879</v>
       </c>
       <c r="AB7" t="n">
-        <v>5095.07816407685</v>
+        <v>5614.436486594408</v>
       </c>
       <c r="AC7" t="n">
-        <v>4608.811055084278</v>
+        <v>5078.602548224725</v>
       </c>
       <c r="AD7" t="n">
-        <v>3723807.836039564</v>
+        <v>4103387.997289878</v>
       </c>
       <c r="AE7" t="n">
-        <v>5095078.16407685</v>
+        <v>5614436.486594408</v>
       </c>
       <c r="AF7" t="n">
         <v>2.21510117931073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>73.93229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4608811.055084279</v>
+        <v>5078602.548224725</v>
       </c>
     </row>
     <row r="8">
@@ -31255,28 +31255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3588.973375887246</v>
+        <v>3958.851373763382</v>
       </c>
       <c r="AB8" t="n">
-        <v>4910.591707219879</v>
+        <v>5416.675101779645</v>
       </c>
       <c r="AC8" t="n">
-        <v>4441.931726741376</v>
+        <v>4899.715232416844</v>
       </c>
       <c r="AD8" t="n">
-        <v>3588973.375887246</v>
+        <v>3958851.373763382</v>
       </c>
       <c r="AE8" t="n">
-        <v>4910591.707219879</v>
+        <v>5416675.101779645</v>
       </c>
       <c r="AF8" t="n">
         <v>2.250820503346856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>73</v>
+        <v>72.76041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4441931.726741376</v>
+        <v>4899715.232416844</v>
       </c>
     </row>
     <row r="9">
@@ -31361,28 +31361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3461.480561660339</v>
+        <v>3821.656396162295</v>
       </c>
       <c r="AB9" t="n">
-        <v>4736.150414208613</v>
+        <v>5228.958880810588</v>
       </c>
       <c r="AC9" t="n">
-        <v>4284.13886590522</v>
+        <v>4729.91438411571</v>
       </c>
       <c r="AD9" t="n">
-        <v>3461480.561660339</v>
+        <v>3821656.396162295</v>
       </c>
       <c r="AE9" t="n">
-        <v>4736150.414208613</v>
+        <v>5228958.880810589</v>
       </c>
       <c r="AF9" t="n">
         <v>2.281760481209134e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>72</v>
+        <v>71.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4284138.86590522</v>
+        <v>4729914.38411571</v>
       </c>
     </row>
     <row r="10">
@@ -31467,28 +31467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3359.399154134114</v>
+        <v>3709.805505454187</v>
       </c>
       <c r="AB10" t="n">
-        <v>4596.478128917367</v>
+        <v>5075.919557630708</v>
       </c>
       <c r="AC10" t="n">
-        <v>4157.796707490892</v>
+        <v>4591.480919148084</v>
       </c>
       <c r="AD10" t="n">
-        <v>3359399.154134114</v>
+        <v>3709805.505454187</v>
       </c>
       <c r="AE10" t="n">
-        <v>4596478.128917367</v>
+        <v>5075919.557630708</v>
       </c>
       <c r="AF10" t="n">
         <v>2.304902578471976e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>72</v>
+        <v>71.04817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4157796.707490892</v>
+        <v>4591480.919148085</v>
       </c>
     </row>
     <row r="11">
@@ -31573,28 +31573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3274.854730914483</v>
+        <v>3634.996399997658</v>
       </c>
       <c r="AB11" t="n">
-        <v>4480.800719231547</v>
+        <v>4973.562439200273</v>
       </c>
       <c r="AC11" t="n">
-        <v>4053.159387431226</v>
+        <v>4498.892620441536</v>
       </c>
       <c r="AD11" t="n">
-        <v>3274854.730914483</v>
+        <v>3634996.399997658</v>
       </c>
       <c r="AE11" t="n">
-        <v>4480800.719231547</v>
+        <v>4973562.439200273</v>
       </c>
       <c r="AF11" t="n">
         <v>2.318485983387122e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>71</v>
+        <v>70.63151041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4053159.387431226</v>
+        <v>4498892.620441535</v>
       </c>
     </row>
     <row r="12">
@@ -31679,28 +31679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3259.118732611411</v>
+        <v>3609.592403739188</v>
       </c>
       <c r="AB12" t="n">
-        <v>4459.270032130033</v>
+        <v>4938.803570774216</v>
       </c>
       <c r="AC12" t="n">
-        <v>4033.683558888173</v>
+        <v>4467.451089633684</v>
       </c>
       <c r="AD12" t="n">
-        <v>3259118.732611411</v>
+        <v>3609592.403739188</v>
       </c>
       <c r="AE12" t="n">
-        <v>4459270.032130033</v>
+        <v>4938803.570774215</v>
       </c>
       <c r="AF12" t="n">
         <v>2.322762240490039e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>71</v>
+        <v>70.5078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>4033683.558888173</v>
+        <v>4467451.089633685</v>
       </c>
     </row>
     <row r="13">
@@ -31785,28 +31785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3266.125884588385</v>
+        <v>3616.498070489677</v>
       </c>
       <c r="AB13" t="n">
-        <v>4468.857526598658</v>
+        <v>4948.252208678751</v>
       </c>
       <c r="AC13" t="n">
-        <v>4042.356036340844</v>
+        <v>4475.997962797858</v>
       </c>
       <c r="AD13" t="n">
-        <v>3266125.884588385</v>
+        <v>3616498.070489677</v>
       </c>
       <c r="AE13" t="n">
-        <v>4468857.526598658</v>
+        <v>4948252.208678751</v>
       </c>
       <c r="AF13" t="n">
         <v>2.324019963167367e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>71</v>
+        <v>70.46223958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4042356.036340844</v>
+        <v>4475997.962797858</v>
       </c>
     </row>
   </sheetData>
@@ -32082,28 +32082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2107.919686950415</v>
+        <v>2514.186477211028</v>
       </c>
       <c r="AB2" t="n">
-        <v>2884.148710538898</v>
+        <v>3440.020856199495</v>
       </c>
       <c r="AC2" t="n">
-        <v>2608.889605533203</v>
+        <v>3111.71009378328</v>
       </c>
       <c r="AD2" t="n">
-        <v>2107919.686950415</v>
+        <v>2514186.477211028</v>
       </c>
       <c r="AE2" t="n">
-        <v>2884148.710538898</v>
+        <v>3440020.856199495</v>
       </c>
       <c r="AF2" t="n">
         <v>4.533735171052165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2608889.605533204</v>
+        <v>3111710.09378328</v>
       </c>
     </row>
   </sheetData>
@@ -32379,28 +32379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4693.769887930643</v>
+        <v>5175.265892560542</v>
       </c>
       <c r="AB2" t="n">
-        <v>6422.223035179941</v>
+        <v>7081.027110819138</v>
       </c>
       <c r="AC2" t="n">
-        <v>5809.295082348766</v>
+        <v>6405.223821646261</v>
       </c>
       <c r="AD2" t="n">
-        <v>4693769.887930643</v>
+        <v>5175265.892560542</v>
       </c>
       <c r="AE2" t="n">
-        <v>6422223.035179941</v>
+        <v>7081027.110819139</v>
       </c>
       <c r="AF2" t="n">
         <v>2.196091800280827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5809295.082348767</v>
+        <v>6405223.821646261</v>
       </c>
     </row>
     <row r="3">
@@ -32485,28 +32485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3227.381784549187</v>
+        <v>3605.004613743283</v>
       </c>
       <c r="AB3" t="n">
-        <v>4415.846139655964</v>
+        <v>4932.526354102809</v>
       </c>
       <c r="AC3" t="n">
-        <v>3994.403981766015</v>
+        <v>4461.772961711268</v>
       </c>
       <c r="AD3" t="n">
-        <v>3227381.784549187</v>
+        <v>3605004.613743283</v>
       </c>
       <c r="AE3" t="n">
-        <v>4415846.139655964</v>
+        <v>4932526.354102809</v>
       </c>
       <c r="AF3" t="n">
         <v>2.735716235980797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.17317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3994403.981766014</v>
+        <v>4461772.961711268</v>
       </c>
     </row>
     <row r="4">
@@ -32591,28 +32591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2795.124189691983</v>
+        <v>3163.268734576926</v>
       </c>
       <c r="AB4" t="n">
-        <v>3824.412228513102</v>
+        <v>4328.123836215772</v>
       </c>
       <c r="AC4" t="n">
-        <v>3459.415693019942</v>
+        <v>3915.053771847131</v>
       </c>
       <c r="AD4" t="n">
-        <v>2795124.189691983</v>
+        <v>3163268.734576927</v>
       </c>
       <c r="AE4" t="n">
-        <v>3824412.228513102</v>
+        <v>4328123.836215772</v>
       </c>
       <c r="AF4" t="n">
         <v>2.929674957320552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3459415.693019941</v>
+        <v>3915053.771847131</v>
       </c>
     </row>
     <row r="5">
@@ -32697,28 +32697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2642.39163044571</v>
+        <v>2991.650970639482</v>
       </c>
       <c r="AB5" t="n">
-        <v>3615.436802867376</v>
+        <v>4093.308840355153</v>
       </c>
       <c r="AC5" t="n">
-        <v>3270.384588698999</v>
+        <v>3702.649189626542</v>
       </c>
       <c r="AD5" t="n">
-        <v>2642391.63044571</v>
+        <v>2991650.970639482</v>
       </c>
       <c r="AE5" t="n">
-        <v>3615436.802867376</v>
+        <v>4093308.840355153</v>
       </c>
       <c r="AF5" t="n">
         <v>2.994216967509082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.33723958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3270384.588698999</v>
+        <v>3702649.189626542</v>
       </c>
     </row>
     <row r="6">
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2650.231820511366</v>
+        <v>2999.491160705138</v>
       </c>
       <c r="AB6" t="n">
-        <v>3626.164096799983</v>
+        <v>4104.03613428776</v>
       </c>
       <c r="AC6" t="n">
-        <v>3280.08808475453</v>
+        <v>3712.352685682071</v>
       </c>
       <c r="AD6" t="n">
-        <v>2650231.820511366</v>
+        <v>2999491.160705138</v>
       </c>
       <c r="AE6" t="n">
-        <v>3626164.096799983</v>
+        <v>4104036.134287759</v>
       </c>
       <c r="AF6" t="n">
         <v>2.996213112154087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.28515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3280088.084754529</v>
+        <v>3712352.685682071</v>
       </c>
     </row>
   </sheetData>
@@ -33100,28 +33100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6298.302842520739</v>
+        <v>6852.318996475923</v>
       </c>
       <c r="AB2" t="n">
-        <v>8617.615810648298</v>
+        <v>9375.645153957545</v>
       </c>
       <c r="AC2" t="n">
-        <v>7795.162652579453</v>
+        <v>8480.846739264101</v>
       </c>
       <c r="AD2" t="n">
-        <v>6298302.842520739</v>
+        <v>6852318.996475923</v>
       </c>
       <c r="AE2" t="n">
-        <v>8617615.810648298</v>
+        <v>9375645.153957544</v>
       </c>
       <c r="AF2" t="n">
         <v>1.738931879000262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>111</v>
+        <v>110.9114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7795162.652579453</v>
+        <v>8480846.739264101</v>
       </c>
     </row>
     <row r="3">
@@ -33206,28 +33206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3968.668034363437</v>
+        <v>4379.46246533813</v>
       </c>
       <c r="AB3" t="n">
-        <v>5430.106689893141</v>
+        <v>5992.17375332399</v>
       </c>
       <c r="AC3" t="n">
-        <v>4911.86492861214</v>
+        <v>5420.289100375205</v>
       </c>
       <c r="AD3" t="n">
-        <v>3968668.034363437</v>
+        <v>4379462.46533813</v>
       </c>
       <c r="AE3" t="n">
-        <v>5430106.689893141</v>
+        <v>5992173.75332399</v>
       </c>
       <c r="AF3" t="n">
         <v>2.302973837708354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.74999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>4911864.92861214</v>
+        <v>5420289.100375204</v>
       </c>
     </row>
     <row r="4">
@@ -33312,28 +33312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3409.638074396268</v>
+        <v>3791.733496104814</v>
       </c>
       <c r="AB4" t="n">
-        <v>4665.217236004787</v>
+        <v>5188.017048846758</v>
       </c>
       <c r="AC4" t="n">
-        <v>4219.975450673828</v>
+        <v>4692.879983132288</v>
       </c>
       <c r="AD4" t="n">
-        <v>3409638.074396268</v>
+        <v>3791733.496104814</v>
       </c>
       <c r="AE4" t="n">
-        <v>4665217.236004787</v>
+        <v>5188017.048846758</v>
       </c>
       <c r="AF4" t="n">
         <v>2.507379799635132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.92057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4219975.450673828</v>
+        <v>4692879.983132288</v>
       </c>
     </row>
     <row r="5">
@@ -33418,28 +33418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3126.630372669914</v>
+        <v>3489.650063898996</v>
       </c>
       <c r="AB5" t="n">
-        <v>4277.993613084145</v>
+        <v>4774.693169922278</v>
       </c>
       <c r="AC5" t="n">
-        <v>3869.707906852978</v>
+        <v>4319.003155108667</v>
       </c>
       <c r="AD5" t="n">
-        <v>3126630.372669914</v>
+        <v>3489650.063898996</v>
       </c>
       <c r="AE5" t="n">
-        <v>4277993.613084145</v>
+        <v>4774693.169922277</v>
       </c>
       <c r="AF5" t="n">
         <v>2.613137666892899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.80208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3869707.906852978</v>
+        <v>4319003.155108667</v>
       </c>
     </row>
     <row r="6">
@@ -33524,28 +33524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2926.048023659529</v>
+        <v>3288.999384051049</v>
       </c>
       <c r="AB6" t="n">
-        <v>4003.547994099417</v>
+        <v>4500.154057671054</v>
       </c>
       <c r="AC6" t="n">
-        <v>3621.454992557318</v>
+        <v>4070.665670412648</v>
       </c>
       <c r="AD6" t="n">
-        <v>2926048.023659529</v>
+        <v>3288999.384051049</v>
       </c>
       <c r="AE6" t="n">
-        <v>4003547.994099417</v>
+        <v>4500154.057671054</v>
       </c>
       <c r="AF6" t="n">
         <v>2.680088025437031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.96614583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3621454.992557318</v>
+        <v>4070665.670412648</v>
       </c>
     </row>
     <row r="7">
@@ -33630,28 +33630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2854.763198821754</v>
+        <v>3208.126456875229</v>
       </c>
       <c r="AB7" t="n">
-        <v>3906.012951891851</v>
+        <v>4389.500150847352</v>
       </c>
       <c r="AC7" t="n">
-        <v>3533.228557886754</v>
+        <v>3970.572417152468</v>
       </c>
       <c r="AD7" t="n">
-        <v>2854763.198821755</v>
+        <v>3208126.456875229</v>
       </c>
       <c r="AE7" t="n">
-        <v>3906012.951891851</v>
+        <v>4389500.150847351</v>
       </c>
       <c r="AF7" t="n">
         <v>2.70260230530143e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.36067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3533228.557886754</v>
+        <v>3970572.417152469</v>
       </c>
     </row>
     <row r="8">
@@ -33736,28 +33736,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2857.781540364093</v>
+        <v>3211.144798417567</v>
       </c>
       <c r="AB8" t="n">
-        <v>3910.142779949908</v>
+        <v>4393.629978905408</v>
       </c>
       <c r="AC8" t="n">
-        <v>3536.9642409512</v>
+        <v>3974.308100216916</v>
       </c>
       <c r="AD8" t="n">
-        <v>2857781.540364093</v>
+        <v>3211144.798417567</v>
       </c>
       <c r="AE8" t="n">
-        <v>3910142.779949908</v>
+        <v>4393629.978905409</v>
       </c>
       <c r="AF8" t="n">
         <v>2.703787267399556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>72</v>
+        <v>71.328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3536964.2409512</v>
+        <v>3974308.100216915</v>
       </c>
     </row>
   </sheetData>
